--- a/asm3/Validierungssimulation ASM3/asm3_validierung.xlsx
+++ b/asm3/Validierungssimulation ASM3/asm3_validierung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maike\Documents\Studium\_Master\Masterarbeit\asmpython\asm3\Validierungssimulation ASM3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A908D78-C102-4E36-BE0B-BCEC4A31D893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451D0A39-6D61-421F-B0CA-794E01A1974B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2EA81AA7-904F-4E5A-849A-FAEB653CEDD4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2EA81AA7-904F-4E5A-849A-FAEB653CEDD4}"/>
   </bookViews>
   <sheets>
     <sheet name="asm3_ss_200d" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="65">
   <si>
     <t>ASM3 Validierung, Steady State</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>Konzentration an XA</t>
-  </si>
-  <si>
-    <t>Konzentration an XSS</t>
   </si>
   <si>
     <t>m³/d</t>
@@ -174,38 +171,95 @@
     <t>Konzentrationen im Settler</t>
   </si>
   <si>
-    <t>XSS Schicht 1 (top)</t>
-  </si>
-  <si>
-    <t>XSS Schicht 2</t>
-  </si>
-  <si>
-    <t>XSS Schicht 3</t>
-  </si>
-  <si>
-    <t>XSS Schicht 4</t>
-  </si>
-  <si>
-    <t>XSS Schicht 5</t>
-  </si>
-  <si>
-    <t>XSS Schicht 6</t>
-  </si>
-  <si>
-    <t>XSS Schicht 7</t>
-  </si>
-  <si>
-    <t>XSS Schicht 8</t>
-  </si>
-  <si>
-    <t>XSS Schicht 9</t>
-  </si>
-  <si>
-    <t>XSS Schicht 10 (bottom)</t>
+    <t>ASM3 Validierung, Dynamische Simulation</t>
+  </si>
+  <si>
+    <t>Testen der ASM3-Implementierung in der Dynamischen Simulation (dryinfluent)</t>
+  </si>
+  <si>
+    <t>Ausgangszustand ist Steady-State-Zustand nach 200 d. Danach 28 d Simulation mit Trockenwetterdaten. Durchschnittswerte im Effluent der letzten 7 d werden verglichen.</t>
+  </si>
+  <si>
+    <t>Durchschnittliche Durchflussrate Q</t>
+  </si>
+  <si>
+    <t>Durchschnittliche Konzentration an SO2</t>
+  </si>
+  <si>
+    <t>Durchschnittliche Konzentration an SI</t>
+  </si>
+  <si>
+    <t>Durchschnittliche Konzentration an SS</t>
+  </si>
+  <si>
+    <t>Durchschnittliche Konzentration an SNH4</t>
+  </si>
+  <si>
+    <t>Durchschnittliche Konzentration an SN2</t>
+  </si>
+  <si>
+    <t>Durchschnittliche Konzentration an SNOX</t>
+  </si>
+  <si>
+    <t>Durchschnittliche Konzentration an SALK</t>
+  </si>
+  <si>
+    <t>Durchschnittliche Konzentration an XI</t>
+  </si>
+  <si>
+    <t>Durchschnittliche Konzentration an XS</t>
+  </si>
+  <si>
+    <t>Durchschnittliche Konzentration an XH</t>
+  </si>
+  <si>
+    <t>Durchschnittliche Konzentration an XSTO</t>
+  </si>
+  <si>
+    <t>Durchschnittliche Konzentration an XA</t>
+  </si>
+  <si>
+    <t>Konzentrationen Unterlaufstrom</t>
+  </si>
+  <si>
+    <t>Abweichung von Matlab [%]</t>
+  </si>
+  <si>
+    <t>Konzentration an XTSS</t>
+  </si>
+  <si>
+    <t>XTSS Schicht 1 (top)</t>
+  </si>
+  <si>
+    <t>XTSS Schicht 2</t>
+  </si>
+  <si>
+    <t>XTSS Schicht 3</t>
+  </si>
+  <si>
+    <t>XTSS Schicht 4</t>
+  </si>
+  <si>
+    <t>XTSS Schicht 5</t>
+  </si>
+  <si>
+    <t>XTSS Schicht 6</t>
+  </si>
+  <si>
+    <t>XTSS Schicht 7</t>
+  </si>
+  <si>
+    <t>XTSS Schicht 8</t>
+  </si>
+  <si>
+    <t>XTSS Schicht 9</t>
+  </si>
+  <si>
+    <t>XTSS Schicht 10 (bottom)</t>
   </si>
   <si>
     <r>
-      <t>g SS/m</t>
+      <t>g/m</t>
     </r>
     <r>
       <rPr>
@@ -218,64 +272,7 @@
     </r>
   </si>
   <si>
-    <t>g SS/m3</t>
-  </si>
-  <si>
-    <t>ASM3 Validierung, Dynamische Simulation</t>
-  </si>
-  <si>
-    <t>Testen der ASM3-Implementierung in der Dynamischen Simulation (dryinfluent)</t>
-  </si>
-  <si>
-    <t>Ausgangszustand ist Steady-State-Zustand nach 200 d. Danach 28 d Simulation mit Trockenwetterdaten. Durchschnittswerte im Effluent der letzten 7 d werden verglichen.</t>
-  </si>
-  <si>
-    <t>Durchschnittliche Durchflussrate Q</t>
-  </si>
-  <si>
-    <t>Durchschnittliche Konzentration an SO2</t>
-  </si>
-  <si>
-    <t>Durchschnittliche Konzentration an SI</t>
-  </si>
-  <si>
-    <t>Durchschnittliche Konzentration an SS</t>
-  </si>
-  <si>
-    <t>Durchschnittliche Konzentration an SNH4</t>
-  </si>
-  <si>
-    <t>Durchschnittliche Konzentration an SN2</t>
-  </si>
-  <si>
-    <t>Durchschnittliche Konzentration an SNOX</t>
-  </si>
-  <si>
-    <t>Durchschnittliche Konzentration an SALK</t>
-  </si>
-  <si>
-    <t>Durchschnittliche Konzentration an XI</t>
-  </si>
-  <si>
-    <t>Durchschnittliche Konzentration an XS</t>
-  </si>
-  <si>
-    <t>Durchschnittliche Konzentration an XH</t>
-  </si>
-  <si>
-    <t>Durchschnittliche Konzentration an XSTO</t>
-  </si>
-  <si>
-    <t>Durchschnittliche Konzentration an XA</t>
-  </si>
-  <si>
-    <t>Durchschnittliche Konzentration an XSS</t>
-  </si>
-  <si>
-    <t>Konzentrationen Unterlaufstrom</t>
-  </si>
-  <si>
-    <t>Abweichung von Matlab [%]</t>
+    <t>Durchschnittliche Konzentration an XTSS</t>
   </si>
 </sst>
 </file>
@@ -284,12 +281,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.000000000_-;\-* #,##0.000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="0.000"/>
-    <numFmt numFmtId="173" formatCode="0.000000"/>
-    <numFmt numFmtId="174" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.000000000_-;\-* #,##0.000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -575,13 +572,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -590,10 +587,10 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -926,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36476357-682D-47D3-99AE-FC7D1B6C44D1}">
   <dimension ref="A1:P145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1056,7 +1053,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F9" s="20"/>
       <c r="I9" s="28"/>
@@ -1072,7 +1069,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>18061</v>
@@ -1097,7 +1094,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="21">
         <v>0.34904513239561502</v>
@@ -1124,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="22">
         <v>30</v>
@@ -1151,7 +1148,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="21">
         <v>0.23901799383024999</v>
@@ -1178,7 +1175,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="21">
         <v>2.70109511106899</v>
@@ -1205,7 +1202,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="21">
         <v>26.174952940993698</v>
@@ -1232,7 +1229,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="21">
         <v>8.2158496425972203</v>
@@ -1259,7 +1256,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="21">
         <v>4.3518032477479496</v>
@@ -1285,7 +1282,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="21">
         <v>5.5304507731705597</v>
@@ -1311,7 +1308,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="21">
         <v>1.0164402864178601</v>
@@ -1337,7 +1334,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="21">
         <v>6.7957222382454896</v>
@@ -1363,7 +1360,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="21">
         <v>1.4548988271619501</v>
@@ -1389,7 +1386,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="35">
         <v>0.51443106628867097</v>
@@ -1412,10 +1409,10 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="26">
         <v>12.362245564959601</v>
@@ -1438,7 +1435,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -1455,7 +1452,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F27" s="37"/>
     </row>
@@ -1464,7 +1461,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28">
         <v>92230</v>
@@ -1482,7 +1479,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="25">
         <v>3.5678470525188199E-3</v>
@@ -1500,7 +1497,7 @@
         <v>11</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30">
         <v>30</v>
@@ -1518,7 +1515,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="21">
         <v>2.1061374809561499</v>
@@ -1536,7 +1533,7 @@
         <v>13</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="21">
         <v>8.9828477636853705</v>
@@ -1554,7 +1551,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="21">
         <v>23.373278651919399</v>
@@ -1572,7 +1569,7 @@
         <v>15</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="21">
         <v>4.1597802357908096</v>
@@ -1590,7 +1587,7 @@
         <v>16</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" s="21">
         <v>5.0902191091353002</v>
@@ -1608,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" s="21">
         <v>1425.5498206535899</v>
@@ -1626,7 +1623,7 @@
         <v>18</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" s="21">
         <v>293.85710059368</v>
@@ -1644,7 +1641,7 @@
         <v>19</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" s="21">
         <v>1745.7726530334101</v>
@@ -1662,7 +1659,7 @@
         <v>20</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" s="21">
         <v>382.23351952166399</v>
@@ -1680,7 +1677,7 @@
         <v>21</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" s="21">
         <v>131.589747164605</v>
@@ -1695,10 +1692,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" s="26">
         <v>3208.5214627987898</v>
@@ -1713,7 +1710,7 @@
     </row>
     <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1730,7 +1727,7 @@
         <v>6</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F45" s="37"/>
     </row>
@@ -1739,7 +1736,7 @@
         <v>7</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46">
         <v>92230</v>
@@ -1757,7 +1754,7 @@
         <v>10</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C47" s="24">
         <v>5.4172297837824E-5</v>
@@ -1775,7 +1772,7 @@
         <v>11</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C48">
         <v>30</v>
@@ -1793,7 +1790,7 @@
         <v>12</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C49" s="21">
         <v>0.63124995109520299</v>
@@ -1811,7 +1808,7 @@
         <v>13</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C50" s="21">
         <v>9.1994967421421396</v>
@@ -1829,7 +1826,7 @@
         <v>14</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C51" s="21">
         <v>25.047819707441398</v>
@@ -1847,7 +1844,7 @@
         <v>15</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C52" s="21">
         <v>2.4855527304984499</v>
@@ -1865,7 +1862,7 @@
         <v>16</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C53" s="21">
         <v>5.2252817151173803</v>
@@ -1883,7 +1880,7 @@
         <v>17</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C54" s="21">
         <v>1425.78043509587</v>
@@ -1901,7 +1898,7 @@
         <v>18</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C55" s="21">
         <v>287.30435436712202</v>
@@ -1919,7 +1916,7 @@
         <v>19</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56" s="21">
         <v>1747.0213048758601</v>
@@ -1937,7 +1934,7 @@
         <v>20</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C57" s="21">
         <v>384.032888982435</v>
@@ -1955,7 +1952,7 @@
         <v>21</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C58" s="21">
         <v>131.55226185587799</v>
@@ -1970,10 +1967,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C59" s="27">
         <v>3205.9495355173499</v>
@@ -1991,7 +1988,7 @@
     </row>
     <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2008,7 +2005,7 @@
         <v>6</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F63" s="37"/>
     </row>
@@ -2017,7 +2014,7 @@
         <v>7</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C64" s="12">
         <v>92230</v>
@@ -2035,7 +2032,7 @@
         <v>10</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C65" s="21">
         <v>1.6821714254884701</v>
@@ -2053,7 +2050,7 @@
         <v>11</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C66">
         <v>30</v>
@@ -2071,7 +2068,7 @@
         <v>12</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C67" s="21">
         <v>0.23391926755999901</v>
@@ -2089,7 +2086,7 @@
         <v>13</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C68" s="21">
         <v>6.47050539612788</v>
@@ -2107,7 +2104,7 @@
         <v>14</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C69" s="21">
         <v>25.2594937858196</v>
@@ -2125,7 +2122,7 @@
         <v>15</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C70" s="21">
         <v>5.1220124504253199</v>
@@ -2143,7 +2140,7 @@
         <v>16</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C71" s="21">
         <v>4.8420352104072997</v>
@@ -2161,7 +2158,7 @@
         <v>17</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C72" s="21">
         <v>1426.4822947001701</v>
@@ -2179,7 +2176,7 @@
         <v>18</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C73" s="21">
         <v>278.79101813125499</v>
@@ -2197,7 +2194,7 @@
         <v>19</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C74" s="21">
         <v>1749.6102932116301</v>
@@ -2215,7 +2212,7 @@
         <v>20</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C75" s="21">
         <v>381.29181368654599</v>
@@ -2233,7 +2230,7 @@
         <v>21</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C76" s="21">
         <v>132.095755312611</v>
@@ -2248,10 +2245,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C77" s="26">
         <v>3201.26551647936</v>
@@ -2266,7 +2263,7 @@
     </row>
     <row r="80" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2283,7 +2280,7 @@
         <v>6</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F81" s="37"/>
     </row>
@@ -2292,7 +2289,7 @@
         <v>7</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C82" s="12">
         <v>92230</v>
@@ -2310,7 +2307,7 @@
         <v>10</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C83" s="21">
         <v>2.1543253002118798</v>
@@ -2328,7 +2325,7 @@
         <v>11</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C84">
         <v>30</v>
@@ -2346,7 +2343,7 @@
         <v>12</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C85" s="21">
         <v>0.213512412196839</v>
@@ -2364,7 +2361,7 @@
         <v>13</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C86" s="21">
         <v>3.8383787786047101</v>
@@ -2382,7 +2379,7 @@
         <v>14</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C87" s="21">
         <v>25.430677402350099</v>
@@ -2400,7 +2397,7 @@
         <v>15</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C88" s="21">
         <v>7.6867988990203999</v>
@@ -2418,7 +2415,7 @@
         <v>16</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C89" s="21">
         <v>4.470827134256</v>
@@ -2436,7 +2433,7 @@
         <v>17</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C90" s="21">
         <v>1427.19536993674</v>
@@ -2454,7 +2451,7 @@
         <v>18</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C91" s="21">
         <v>270.49546340546402</v>
@@ -2472,7 +2469,7 @@
         <v>19</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C92" s="21">
         <v>1752.16094277461</v>
@@ -2490,7 +2487,7 @@
         <v>20</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C93" s="21">
         <v>378.04619455314798</v>
@@ -2508,7 +2505,7 @@
         <v>21</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C94" s="21">
         <v>132.60695492492999</v>
@@ -2523,10 +2520,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C95" s="26">
         <v>3196.3869496401198</v>
@@ -2541,7 +2538,7 @@
     </row>
     <row r="98" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2558,7 +2555,7 @@
         <v>6</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F99" s="37"/>
     </row>
@@ -2567,7 +2564,7 @@
         <v>7</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C100" s="12">
         <v>92230</v>
@@ -2585,7 +2582,7 @@
         <v>10</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C101" s="21">
         <v>0.34904513239821799</v>
@@ -2603,7 +2600,7 @@
         <v>11</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C102">
         <v>30</v>
@@ -2621,7 +2618,7 @@
         <v>12</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C103" s="21">
         <v>0.23901799383178199</v>
@@ -2639,7 +2636,7 @@
         <v>13</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C104" s="21">
         <v>2.7010951092606099</v>
@@ -2657,7 +2654,7 @@
         <v>14</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C105" s="21">
         <v>26.174952941621399</v>
@@ -2675,7 +2672,7 @@
         <v>15</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C106" s="21">
         <v>8.2158496437772008</v>
@@ -2693,7 +2690,7 @@
         <v>16</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C107" s="21">
         <v>4.3518032475344999</v>
@@ -2711,7 +2708,7 @@
         <v>17</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C108" s="21">
         <v>1427.7948612673599</v>
@@ -2729,7 +2726,7 @@
         <v>18</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C109" s="21">
         <v>262.41409195090398</v>
@@ -2747,7 +2744,7 @@
         <v>19</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C110" s="21">
         <v>1754.44962593434</v>
@@ -2765,7 +2762,7 @@
         <v>20</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C111" s="21">
         <v>375.61080538617102</v>
@@ -2783,7 +2780,7 @@
         <v>21</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C112" s="21">
         <v>132.810518184465</v>
@@ -2798,10 +2795,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C113" s="26">
         <v>3191.55732782428</v>
@@ -2816,7 +2813,7 @@
     </row>
     <row r="116" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="17" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2833,7 +2830,7 @@
         <v>6</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2841,7 +2838,7 @@
         <v>7</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C118">
         <v>18446</v>
@@ -2859,7 +2856,7 @@
         <v>10</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C119" s="21">
         <v>0.34904513239514301</v>
@@ -2877,7 +2874,7 @@
         <v>11</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C120">
         <v>30</v>
@@ -2895,7 +2892,7 @@
         <v>12</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C121" s="21">
         <v>0.23901799382997699</v>
@@ -2913,7 +2910,7 @@
         <v>13</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C122" s="21">
         <v>2.7010951113921702</v>
@@ -2931,7 +2928,7 @@
         <v>14</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C123" s="21">
         <v>26.1749529408815</v>
@@ -2949,7 +2946,7 @@
         <v>15</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C124" s="21">
         <v>8.2158496423863099</v>
@@ -2967,7 +2964,7 @@
         <v>16</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C125" s="21">
         <v>4.3518032477861004</v>
@@ -2985,7 +2982,7 @@
         <v>17</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C126" s="21">
         <v>2791.9028490375899</v>
@@ -3003,7 +3000,7 @@
         <v>18</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C127" s="21">
         <v>513.12318794739303</v>
@@ -3021,7 +3018,7 @@
         <v>19</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C128" s="21">
         <v>3430.6419234657501</v>
@@ -3039,7 +3036,7 @@
         <v>20</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C129" s="21">
         <v>734.46746878121496</v>
@@ -3057,7 +3054,7 @@
         <v>21</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C130" s="21">
         <v>259.69701540870301</v>
@@ -3072,10 +3069,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C131" s="27">
         <v>6240.7550539393897</v>
@@ -3090,7 +3087,7 @@
     </row>
     <row r="134" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3107,16 +3104,16 @@
         <v>6</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F135" s="37"/>
     </row>
     <row r="136" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C136" s="21">
         <v>12.362245564959601</v>
@@ -3129,12 +3126,12 @@
         <v>1.1845745572656578E-8</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C137" s="21">
         <v>17.9657865902963</v>
@@ -3147,12 +3144,12 @@
         <v>1.3772278142711914E-8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C138" s="21">
         <v>29.3151527173193</v>
@@ -3165,12 +3162,12 @@
         <v>1.4607800277120858E-8</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C139" s="21">
         <v>68.299194018894994</v>
@@ -3183,12 +3180,12 @@
         <v>7.9905041882377266E-8</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C140" s="21">
         <v>350.07743870604401</v>
@@ -3201,12 +3198,12 @@
         <v>2.9886930495827674E-7</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C141" s="21">
         <v>350.07743870638097</v>
@@ -3219,12 +3216,12 @@
         <v>1.8628728766726425E-8</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C142" s="21">
         <v>350.07743870601598</v>
@@ -3237,12 +3234,12 @@
         <v>2.0093259638287117E-8</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C143" s="35">
         <v>350.07743870635198</v>
@@ -3255,12 +3252,12 @@
         <v>1.9931561271050773E-7</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C144" s="35">
         <v>350.07743870598699</v>
@@ -3273,12 +3270,12 @@
         <v>3.0478106052463623E-8</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>46</v>
+        <v>62</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C145" s="27">
         <v>6240.7550539393897</v>
@@ -3301,7 +3298,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3320,7 +3317,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3330,12 +3327,12 @@
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3357,15 +3354,15 @@
         <v>6</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="21">
         <v>18061.331872800401</v>
@@ -3380,10 +3377,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="21">
         <v>0.47369992010311801</v>
@@ -3398,10 +3395,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="22">
         <v>30</v>
@@ -3416,10 +3413,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="21">
         <v>0.239721161029953</v>
@@ -3434,10 +3431,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="21">
         <v>4.9622334216535497</v>
@@ -3452,10 +3449,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="21">
         <v>24.926729234049802</v>
@@ -3470,10 +3467,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="21">
         <v>7.2059365397521198</v>
@@ -3488,10 +3485,10 @@
     </row>
     <row r="17" spans="1:18" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="21">
         <v>4.5862692786154602</v>
@@ -3506,10 +3503,10 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="21">
         <v>5.7665842604460504</v>
@@ -3524,10 +3521,10 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="21">
         <v>1.06430681734762</v>
@@ -3542,10 +3539,10 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="21">
         <v>7.0993676738905602</v>
@@ -3560,10 +3557,10 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="21">
         <v>1.5351924791277101</v>
@@ -3578,10 +3575,10 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="35">
         <v>0.50205392997470499</v>
@@ -3596,10 +3593,10 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="26">
         <v>12.8855632392924</v>
@@ -3638,8 +3635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0090525B-DDB6-4385-964B-DC1E571E79EE}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3658,7 +3655,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3668,12 +3665,12 @@
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3695,15 +3692,15 @@
         <v>6</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="21">
         <v>18061.331872800401</v>
@@ -3718,10 +3715,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="21">
         <v>0.47369992010311801</v>
@@ -3736,10 +3733,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="22">
         <v>30</v>
@@ -3754,10 +3751,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="21">
         <v>0.239721161029953</v>
@@ -3772,10 +3769,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="21">
         <v>4.9622334216535497</v>
@@ -3790,10 +3787,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="21">
         <v>24.926729234049802</v>
@@ -3808,10 +3805,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="21">
         <v>7.2059365397521198</v>
@@ -3826,10 +3823,10 @@
     </row>
     <row r="17" spans="1:5" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="21">
         <v>4.5862692786154602</v>
@@ -3844,10 +3841,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="21">
         <v>5.7665842604460504</v>
@@ -3862,10 +3859,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="21">
         <v>1.06430681734762</v>
@@ -3880,10 +3877,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="21">
         <v>7.0993676738905602</v>
@@ -3898,10 +3895,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="21">
         <v>1.5351924791277101</v>
@@ -3916,10 +3913,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="21">
         <v>0.50205392997470499</v>
@@ -3934,10 +3931,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="26">
         <v>12.8855632392924</v>
